--- a/ConfigFiles/ConfigBE_BoundarySector.xlsx
+++ b/ConfigFiles/ConfigBE_BoundarySector.xlsx
@@ -1572,7 +1572,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I61" activeCellId="0" sqref="I61"/>
+      <selection pane="topLeft" activeCell="C55" activeCellId="0" sqref="C55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.46484375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/ConfigFiles/ConfigBE_BoundarySector.xlsx
+++ b/ConfigFiles/ConfigBE_BoundarySector.xlsx
@@ -57,7 +57,7 @@
     <t xml:space="preserve">Relative Path</t>
   </si>
   <si>
-    <t xml:space="preserve">Simulations/BE_BoudarySector_Test_No_MTS</t>
+    <t xml:space="preserve">Simulations/BE_BoudarySector_Test_No_MTS_Coupling</t>
   </si>
   <si>
     <t xml:space="preserve">This section defines the output of the pre-processing (which is the input of the DispaSet solver)</t>
@@ -1692,8 +1692,8 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C34" activeCellId="0" sqref="C34"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C82" activeCellId="0" sqref="C82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.5078125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -31052,7 +31052,7 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
     </sheetView>
   </sheetViews>
@@ -32218,7 +32218,7 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>

--- a/ConfigFiles/ConfigBE_BoundarySector.xlsx
+++ b/ConfigFiles/ConfigBE_BoundarySector.xlsx
@@ -1693,7 +1693,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C82" activeCellId="0" sqref="C82"/>
+      <selection pane="topLeft" activeCell="C34" activeCellId="0" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.5078125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
